--- a/latin/files/ap-latin-draft-course-framework-vocab-list.xlsx
+++ b/latin/files/ap-latin-draft-course-framework-vocab-list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D714"/>
+  <dimension ref="A1:E714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Suggested Reading</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Base Word</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -470,6 +475,11 @@
 Reading</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Required</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -490,6 +500,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -510,6 +525,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -530,6 +550,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>abeo</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -550,6 +575,11 @@
           <t>5.3</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>absum</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -570,6 +600,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>accedo</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -590,6 +625,11 @@
           <t>3.6</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>accendo</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -610,6 +650,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>accido</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -630,6 +675,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>accipio</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -650,6 +700,11 @@
           <t>6.1</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>acies</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -670,6 +725,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ad</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -690,6 +750,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>addo</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -710,6 +775,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>adeo</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -730,6 +800,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>adhuc</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -750,6 +825,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>adsum</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -771,6 +851,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>adsurgo</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -791,6 +876,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>adversus</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -811,6 +901,11 @@
           <t>5.4</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>adversus</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -831,6 +926,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Aeneas</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -851,6 +951,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>aequo</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -871,6 +976,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>aequor</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -891,6 +1001,11 @@
           <t>3.3</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>aetas</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -911,6 +1026,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>aether</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -931,6 +1051,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>affirmo</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -951,6 +1076,11 @@
           <t>6.2</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ager</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -971,6 +1101,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>agmen</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -991,6 +1126,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ago</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1011,6 +1151,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>aio</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1031,6 +1176,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Alexandrinus</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1051,6 +1201,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>alienus</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1071,6 +1226,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>aliqui</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1091,6 +1251,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>aliquis</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1111,6 +1276,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>alius</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1131,6 +1301,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>alter</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1151,6 +1326,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>altum</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1171,6 +1351,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>altus</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1191,6 +1376,11 @@
           <t>2.5</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>amicus</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1211,6 +1401,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>amicus</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1231,6 +1426,11 @@
           <t>5.5</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>amitto</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1251,6 +1451,11 @@
           <t>6.2</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>amnis</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1271,6 +1476,11 @@
           <t>2.5</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>amo</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1291,6 +1501,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>amor</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1311,6 +1526,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>amplector</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1331,6 +1551,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1351,6 +1576,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>anima</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1371,6 +1601,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>animus</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1391,6 +1626,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>annus</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1411,6 +1651,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ante</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1431,6 +1676,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>antiquus</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1451,6 +1701,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>appareo</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1471,6 +1726,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>apud</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1491,6 +1751,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>aqua</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1511,6 +1776,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ara</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1531,6 +1801,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>arbor</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1551,6 +1826,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ardens</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1571,6 +1851,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ardeo</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1591,6 +1876,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>arma</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1611,6 +1901,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Arpocras</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1631,6 +1926,11 @@
           <t>6.1</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ars</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1651,6 +1951,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>arvum</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1671,6 +1976,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>arx</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1691,6 +2001,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>aspicio</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1711,6 +2026,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1731,6 +2051,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ater</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1751,6 +2076,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>atque</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1771,6 +2101,11 @@
           <t>3.3</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>audeo</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1791,6 +2126,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>audio</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1811,6 +2151,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1831,6 +2176,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>auris</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1851,6 +2201,11 @@
           <t>6.2</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>aurum</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1871,6 +2226,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>aut</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1891,6 +2251,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>autem</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1911,6 +2276,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>avunculus</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1931,6 +2301,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>beatus</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1951,6 +2326,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>bellum</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1971,6 +2351,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>bene</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1991,6 +2376,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>beneficium</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2011,6 +2401,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>bonus</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2031,6 +2426,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>cado</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2051,6 +2451,11 @@
           <t>5.2</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>caedes</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2071,6 +2476,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>caelum</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2091,6 +2501,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>caligo</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2111,6 +2526,11 @@
           <t>6.2</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Camilla</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2131,6 +2551,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>campus</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2151,6 +2576,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>cano</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2171,6 +2601,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>capillus</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2191,6 +2626,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>capio</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2211,6 +2651,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>caput</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2232,6 +2677,11 @@
           <t>3.3</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>carmen</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2252,6 +2702,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Carthago</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2272,6 +2727,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>carus</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2292,6 +2752,11 @@
           <t>2.5</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>castra</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2312,6 +2777,11 @@
           <t>2.5</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>castrum</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2332,6 +2802,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>casus</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2352,6 +2827,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>catena</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2372,6 +2852,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>caterva</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2392,6 +2877,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>causa</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2412,6 +2902,11 @@
           <t>6.1</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>cedo</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2432,6 +2927,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>celer</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2452,6 +2952,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>certus</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2472,6 +2977,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>ceterus</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2492,6 +3002,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>cingo</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2512,6 +3027,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>cinis</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2532,6 +3052,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>circum</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2552,6 +3077,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>civis</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2572,6 +3102,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>civitas</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2592,6 +3127,11 @@
           <t>5.2</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>clarus</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2612,6 +3152,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>classis</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2632,6 +3177,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>claudo</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2652,6 +3202,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>clipeus</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2672,6 +3227,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>coepio</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2693,6 +3253,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>cognosco</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2713,6 +3278,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>cogo</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2733,6 +3303,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>colo</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2753,6 +3328,11 @@
           <t>5.2</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>coma</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2773,6 +3353,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>comes</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2793,6 +3378,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>committo</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2813,6 +3403,11 @@
           <t>4.5</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>compono</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2833,6 +3428,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>condo</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2853,6 +3453,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>coniunx</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2873,6 +3478,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>consilium</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2894,6 +3504,11 @@
           <t>5.1</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>consul</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2915,6 +3530,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>consulo</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2935,6 +3555,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>contingo</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2956,6 +3581,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>contra</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2976,6 +3606,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>conubium</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -2996,6 +3631,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>copia</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3016,6 +3656,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>corpus</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3036,6 +3681,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>corripio</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3057,6 +3707,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>credo</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3077,6 +3732,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>cresco</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3097,6 +3757,11 @@
           <t>5.5</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>crimen</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3117,6 +3782,11 @@
           <t>4.5</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>crudelis</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3137,6 +3807,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>cum</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3157,6 +3832,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>cum</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3177,6 +3857,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>cunctor</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3197,6 +3882,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>cunctus</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3217,6 +3907,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>cupio</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3237,6 +3932,11 @@
           <t>5.2</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>cur</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3257,6 +3957,11 @@
           <t>3.6</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>cura</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3277,6 +3982,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>currus</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3297,6 +4007,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>cursus</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3317,6 +4032,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Danai</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3337,6 +4057,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3357,6 +4082,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>dea</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3377,6 +4107,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>debeo</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3397,6 +4132,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>deinde</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3417,6 +4157,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>densus</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3437,6 +4182,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>desero</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3457,6 +4207,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>desum</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3477,6 +4232,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>detineo</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3497,6 +4257,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>deus</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3517,6 +4282,11 @@
           <t>3.3</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>dexter</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3537,6 +4307,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>dextra</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3558,6 +4333,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Diana</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3578,6 +4358,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>dico</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3598,6 +4383,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Dido</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3618,6 +4408,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>dies</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3638,6 +4433,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>dignus</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3658,6 +4458,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>disco</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3678,6 +4483,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>diu</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3698,6 +4508,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>diva</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3718,6 +4533,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>divus</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3738,6 +4558,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -3759,6 +4584,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>doceo</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -3779,6 +4609,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>dolor</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3799,6 +4634,11 @@
           <t>3.3</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>domina</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -3819,6 +4659,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>dominus</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -3839,6 +4684,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>domus</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -3859,6 +4709,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>donum</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -3880,6 +4735,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>dubius</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -3900,6 +4760,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>duco</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -3920,6 +4785,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>dulcis</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -3940,6 +4810,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>dum</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -3960,6 +4835,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>duo</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -3980,6 +4860,11 @@
           <t>6.1</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>durus</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4000,6 +4885,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>dux</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4020,6 +4910,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>ecce</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4040,6 +4935,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>effundo</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4060,6 +4960,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>ego</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4080,6 +4985,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>egredior</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4100,6 +5010,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>enim</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4120,6 +5035,11 @@
           <t>3.6</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>eo</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4140,6 +5060,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>eo</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4160,6 +5085,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>epistula</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4180,6 +5110,11 @@
           <t>6.2</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>eques</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4200,6 +5135,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>equidem</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4220,6 +5160,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>equus</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4240,6 +5185,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>ergo</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4260,6 +5210,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>eripio</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4280,6 +5235,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>erro</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4300,6 +5260,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>et</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4320,6 +5285,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>etiam</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4340,6 +5310,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>ex</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4360,6 +5335,11 @@
           <t>5.2</t>
         </is>
       </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>excipio</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4380,6 +5360,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>excito</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4400,6 +5385,11 @@
           <t>3.3</t>
         </is>
       </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>exercitus</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -4420,6 +5410,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>exigo</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4440,6 +5435,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>exitus</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -4461,6 +5461,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>exspecto</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -4482,6 +5487,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>exstinguo</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4502,6 +5512,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>extremus</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -4522,6 +5537,11 @@
           <t>5.5</t>
         </is>
       </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>facies</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -4542,6 +5562,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>facilis</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -4563,6 +5588,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>facio</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -4583,6 +5613,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>fama</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -4603,6 +5638,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>fatalis</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -4623,6 +5663,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>fatum</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -4644,6 +5689,11 @@
           <t>6.4</t>
         </is>
       </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>felix</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -4664,6 +5714,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>femina</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -4684,6 +5739,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>fero</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -4704,6 +5764,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>ferrum</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -4724,6 +5789,11 @@
           <t>2.5</t>
         </is>
       </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>ferus</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -4744,6 +5814,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>fides</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -4764,6 +5839,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>figura</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -4784,6 +5864,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>fingo</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -4804,6 +5889,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>finis</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -4824,6 +5914,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>fio</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -4844,6 +5939,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>flamma</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -4864,6 +5964,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>flecto</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -4884,6 +5989,11 @@
           <t>5.4</t>
         </is>
       </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>fleo</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -4904,6 +6014,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>fluctus</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -4924,6 +6039,11 @@
           <t>3.3</t>
         </is>
       </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>flumen</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -4944,6 +6064,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -4964,6 +6089,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>forma</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -4984,6 +6114,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>formido</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -5004,6 +6139,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>forte</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -5025,6 +6165,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>fortis</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -5045,6 +6190,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>fortuna</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -5065,6 +6215,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>frango</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -5085,6 +6240,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>frater</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -5105,6 +6265,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>fuga</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -5125,6 +6290,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>fugio</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -5145,6 +6315,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>furor</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -5165,6 +6340,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>futurus</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -5185,6 +6365,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Gaius</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -5205,6 +6390,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>gaudeo</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -5225,6 +6415,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>geminus</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -5245,6 +6440,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>gemitus</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -5265,6 +6465,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>gens</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -5285,6 +6490,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>genus</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -5305,6 +6515,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>gero</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -5325,6 +6540,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>gloria</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -5345,6 +6565,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>gradus</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -5366,6 +6591,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>gratia</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -5386,6 +6616,11 @@
           <t>3.6</t>
         </is>
       </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>gratus</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -5406,6 +6641,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>gravis</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -5426,6 +6666,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>habeo</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -5446,6 +6691,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>hasta</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -5466,6 +6716,11 @@
           <t>6.3</t>
         </is>
       </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>haud</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -5486,6 +6741,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>haurio</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -5506,6 +6766,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>hic</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -5526,6 +6791,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>hic</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -5546,6 +6816,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>hinc</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -5566,6 +6841,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>historia</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -5586,6 +6866,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>homo</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -5606,6 +6891,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>honos</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -5626,6 +6916,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>horrendus</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -5646,6 +6941,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>horreo</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -5666,6 +6966,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>hostis</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -5686,6 +6991,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>huc</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -5706,6 +7016,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>humanus</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -5726,6 +7041,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>iaceo</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -5746,6 +7066,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>iacto</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -5766,6 +7091,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>iam</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -5786,6 +7116,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>iatralipta</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -5806,6 +7141,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>ibi</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -5826,6 +7166,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>idem</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -5846,6 +7191,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>igitur</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -5866,6 +7216,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>ignis</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -5886,6 +7241,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>ille</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -5906,6 +7266,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>illic</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -5926,6 +7291,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>imago</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -5946,6 +7316,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>immineo</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -5967,6 +7342,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>impello</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -5987,6 +7367,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>imperator</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -6007,6 +7392,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>imperium</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -6027,6 +7417,11 @@
           <t>5.3</t>
         </is>
       </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>impetus</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -6049,6 +7444,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>implico</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -6069,6 +7469,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>impono</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -6089,6 +7494,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -6110,6 +7520,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>incertus</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -6130,6 +7545,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>incido</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -6150,6 +7570,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>incipio</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -6170,6 +7595,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>inde</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -6191,6 +7621,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>infans</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -6211,6 +7646,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>infelix</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -6231,6 +7671,11 @@
           <t>5.3</t>
         </is>
       </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>inferus</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -6251,6 +7696,11 @@
           <t>5.2</t>
         </is>
       </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>ingenium</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -6271,6 +7721,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>ingens</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -6291,6 +7746,11 @@
           <t>6.1</t>
         </is>
       </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>inimicus</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -6311,6 +7771,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>iniuria</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -6332,6 +7797,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>inquam</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -6352,6 +7822,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>intendo</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -6372,6 +7847,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>inter</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -6392,6 +7872,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>interdum</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -6412,6 +7897,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>interim</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -6432,6 +7922,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>invenio</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -6452,6 +7947,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>ipse</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -6472,6 +7972,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>ira</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -6492,6 +7997,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -6512,6 +8022,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>iste</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -6532,6 +8047,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>ita</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -6552,6 +8072,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -6572,6 +8097,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>itaque</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -6592,6 +8122,11 @@
           <t>6.2</t>
         </is>
       </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>iter</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -6612,6 +8147,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>iterum</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -6632,6 +8172,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>iubeo</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -6652,6 +8197,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>iugum</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -6672,6 +8222,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Iuno</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -6693,6 +8248,11 @@
           <t>4.5</t>
         </is>
       </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Iuppiter</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -6713,6 +8273,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>ius</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -6733,6 +8298,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>iuvenis</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -6753,6 +8323,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>iuvo</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -6773,6 +8348,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>labor</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -6793,6 +8373,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>labor</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -6813,6 +8398,11 @@
           <t>4.5</t>
         </is>
       </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>lacrima</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -6833,6 +8423,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>laedo</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -6853,6 +8448,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>laetus</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -6874,6 +8474,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Laocoon</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -6894,6 +8499,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -6914,6 +8524,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Latium</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -6934,6 +8549,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>latus</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -6954,6 +8574,11 @@
           <t>5.3</t>
         </is>
       </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>laudo</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -6974,6 +8599,11 @@
           <t>5.3</t>
         </is>
       </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>laus</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -6994,6 +8624,11 @@
           <t>5.4</t>
         </is>
       </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>legatus</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -7014,6 +8649,11 @@
           <t>5.2</t>
         </is>
       </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>legio</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -7034,6 +8674,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>lego</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -7054,6 +8699,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>levis</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -7074,6 +8724,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>lex</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -7094,6 +8749,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>liber</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -7114,6 +8774,11 @@
           <t>2.5</t>
         </is>
       </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>liber</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -7134,6 +8799,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>liberta</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -7154,6 +8824,11 @@
           <t>5.5</t>
         </is>
       </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>libertas</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -7174,6 +8849,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>licet</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -7194,6 +8874,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>limen</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -7214,6 +8899,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>litus</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -7234,6 +8924,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>locus</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -7254,6 +8949,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>longe</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -7274,6 +8974,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>longus</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -7294,6 +8999,11 @@
           <t>4.5</t>
         </is>
       </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>loquor</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -7314,6 +9024,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>lumen</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -7334,6 +9049,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>lux</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -7354,6 +9074,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>machina</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -7374,6 +9099,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>magis</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -7394,6 +9124,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>magnus</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -7414,6 +9149,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>malum</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -7434,6 +9174,11 @@
           <t>2.5</t>
         </is>
       </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>malus</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -7454,6 +9199,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>maneo</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -7474,6 +9224,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>manus</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -7494,6 +9249,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>mare</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -7514,6 +9274,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>mater</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -7534,6 +9299,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>maxime</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -7554,6 +9324,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -7574,6 +9349,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>medius</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -7594,6 +9374,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>membrum</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -7614,6 +9399,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>memini</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -7634,6 +9424,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>memor</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -7654,6 +9449,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>mens</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -7674,6 +9474,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>mereo</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -7694,6 +9499,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>metuo</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -7714,6 +9524,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>metus</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -7734,6 +9549,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>meus</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -7754,6 +9574,11 @@
           <t>6.3</t>
         </is>
       </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>miles</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -7774,6 +9599,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>mille</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -7794,6 +9624,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>minus</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -7814,6 +9649,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>misceo</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -7834,6 +9674,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Misenum</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -7854,6 +9699,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>miser</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -7874,6 +9724,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>mitto</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -7894,6 +9749,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>modo</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -7914,6 +9774,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>modus</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -7934,6 +9799,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>moenia</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -7954,6 +9824,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>mollis</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -7974,6 +9849,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>mons</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -7995,6 +9875,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>monstrum</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -8015,6 +9900,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>mora</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -8035,6 +9925,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>morior</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -8055,6 +9950,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>moror</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -8075,6 +9975,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>mors</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -8095,6 +10000,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>mos</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -8115,6 +10025,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>moveo</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -8135,6 +10050,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>mox</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -8155,6 +10075,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>multum</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -8175,6 +10100,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>multus</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -8195,6 +10125,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>mundus</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -8215,6 +10150,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>munus</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -8235,6 +10175,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>murus</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -8255,6 +10200,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>muto</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -8275,6 +10225,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>nam</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -8295,6 +10250,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>narro</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -8315,6 +10275,11 @@
           <t>3.3</t>
         </is>
       </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>nascor</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -8335,6 +10300,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -8355,6 +10325,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>natus</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -8375,6 +10350,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>navis</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -8396,6 +10376,11 @@
           <t>2.5</t>
         </is>
       </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>-ne</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -8416,6 +10401,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>ne</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -8436,6 +10426,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>nec</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -8456,6 +10451,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>nego</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -8476,6 +10476,11 @@
           <t>2.5</t>
         </is>
       </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>nemo</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -8496,6 +10501,11 @@
           <t>6.1</t>
         </is>
       </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>nemus</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -8516,6 +10526,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>ni</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -8536,6 +10551,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>nihil</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -8556,6 +10576,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>nisi</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -8576,6 +10601,11 @@
           <t>5.4</t>
         </is>
       </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>nobilis</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -8596,6 +10626,11 @@
           <t>5.4</t>
         </is>
       </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>nolo</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -8616,6 +10651,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>nomen</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -8636,6 +10676,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -8656,6 +10701,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>nondum</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -8677,6 +10727,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>nos</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -8697,6 +10752,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>nosco</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -8717,6 +10777,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>noster</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -8737,6 +10802,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>notus</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -8757,6 +10827,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>novus</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -8777,6 +10852,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>nox</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -8797,6 +10877,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>nubes</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -8817,6 +10902,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>nubila</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -8837,6 +10927,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>nullus</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -8857,6 +10952,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>numen</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -8877,6 +10977,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>numerus</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -8897,6 +11002,11 @@
           <t>3.6</t>
         </is>
       </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>numquam</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -8917,6 +11027,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>nunc</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -8938,6 +11053,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>nympha</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -8958,6 +11078,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -8978,6 +11103,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>ob</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -8998,6 +11128,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>obscurus</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -9018,6 +11153,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>occido</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -9038,6 +11178,11 @@
           <t>5.4</t>
         </is>
       </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>occupo</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -9058,6 +11203,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>oculus</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -9078,6 +11228,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>omnis</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -9098,6 +11253,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>operio</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -9118,6 +11278,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>ops</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -9138,6 +11303,11 @@
           <t>6.3</t>
         </is>
       </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>opto</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -9158,6 +11328,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>opus</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -9178,6 +11353,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>ora</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -9198,6 +11378,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>orbis</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -9218,6 +11403,11 @@
           <t>5.3</t>
         </is>
       </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>ordo</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -9238,6 +11428,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>oro</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -9258,6 +11453,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>os</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -9278,6 +11478,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>ostendo</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -9298,6 +11503,11 @@
           <t>6.5</t>
         </is>
       </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>Pallas</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -9318,6 +11528,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>palma</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -9338,6 +11553,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>par</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -9358,6 +11578,11 @@
           <t>6.1</t>
         </is>
       </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>parco</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -9378,6 +11603,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>parens</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -9398,6 +11628,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>pariter</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -9418,6 +11653,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>paro</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -9438,6 +11678,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>pars</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -9458,6 +11703,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>parum</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -9478,6 +11728,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>parvus</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -9498,6 +11753,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>pater</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -9518,6 +11778,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>patior</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -9538,6 +11803,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>patria</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -9558,6 +11828,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>patrona</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -9578,6 +11853,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>paucus</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -9598,6 +11878,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>paulum</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -9618,6 +11903,11 @@
           <t>6.1</t>
         </is>
       </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>pax</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -9638,6 +11928,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>pectus</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -9658,6 +11953,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>pendeo</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -9678,6 +11978,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>per</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -9698,6 +12003,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>perdo</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -9718,6 +12028,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>pereo</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -9738,6 +12053,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>periculum</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -9758,6 +12078,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>pervenio</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -9778,6 +12103,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>pes</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -9798,6 +12128,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>peto</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -9818,6 +12153,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>pharetra</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -9840,6 +12180,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>placeo</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -9860,6 +12205,11 @@
           <t>6.2</t>
         </is>
       </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>plenus</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -9880,6 +12230,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Plinius</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -9900,6 +12255,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>plus</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -9920,6 +12280,11 @@
           <t>6.3</t>
         </is>
       </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>poena</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -9940,6 +12305,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>pono</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -9960,6 +12330,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>populus</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -9980,6 +12355,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>posco</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -10000,6 +12380,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>possum</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -10020,6 +12405,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -10040,6 +12430,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>postquam</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -10060,6 +12455,11 @@
           <t>5.3</t>
         </is>
       </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>praesto</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -10080,6 +12480,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>precor</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -10100,6 +12505,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>premo</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -10120,6 +12530,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>primum</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -10140,6 +12555,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>primus</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -10160,6 +12580,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>princeps</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -10180,6 +12605,11 @@
           <t>5.1</t>
         </is>
       </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>princeps</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -10200,6 +12630,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>prior</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -10220,6 +12655,11 @@
           <t>5.5</t>
         </is>
       </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>prius</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -10240,6 +12680,11 @@
           <t>5.5</t>
         </is>
       </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>priusquam</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -10260,6 +12705,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -10280,6 +12730,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>procul</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -10300,6 +12755,11 @@
           <t>6.2</t>
         </is>
       </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>proelium</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -10320,6 +12780,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>proficiscor</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -10340,6 +12805,11 @@
           <t>2.5</t>
         </is>
       </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>prope</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -10360,6 +12830,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>propero</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -10380,6 +12855,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>propius</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -10400,6 +12880,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>propter</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -10420,6 +12905,11 @@
           <t>5.2</t>
         </is>
       </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>prosum</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -10440,6 +12930,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>proximus</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -10460,6 +12955,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>puella</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -10480,6 +12980,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>puer</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -10500,6 +13005,11 @@
           <t>6.2</t>
         </is>
       </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>pugna</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -10520,6 +13030,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>pulcher</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -10540,6 +13055,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>pumex</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -10560,6 +13080,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>puto</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -10580,6 +13105,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>qua</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -10600,6 +13130,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>quaero</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -10621,6 +13156,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>qualis</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -10641,6 +13181,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>quam</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -10661,6 +13206,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>quamquam</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -10682,6 +13232,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>quamvis</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -10702,6 +13257,11 @@
           <t>5.1</t>
         </is>
       </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>quantus</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -10722,6 +13282,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>quasi</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -10742,6 +13307,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>quater</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -10762,6 +13332,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-que</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -10782,6 +13357,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>qui</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -10802,6 +13382,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>quia</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -10824,6 +13409,11 @@
           <t>6.3</t>
         </is>
       </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>quicumque</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -10845,6 +13435,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>quidam</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -10865,6 +13460,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>quidem</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -10885,6 +13485,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>quiesco</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -10905,6 +13510,11 @@
           <t>4.5</t>
         </is>
       </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>quin</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -10925,6 +13535,11 @@
           <t>5.5</t>
         </is>
       </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>quippe</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -10945,6 +13560,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>quis</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -10965,6 +13585,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>quis</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -10986,6 +13611,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>quisquam</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -11007,6 +13637,11 @@
           <t>3.6</t>
         </is>
       </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>quisque</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -11028,6 +13663,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>quisquis</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -11049,6 +13689,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>quo</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -11069,6 +13714,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>quod</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -11089,6 +13739,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>quoque</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -11109,6 +13764,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>rapio</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -11129,6 +13789,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>ratio</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -11149,6 +13814,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>recipio</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -11169,6 +13839,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>reddo</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -11189,6 +13864,11 @@
           <t>3.3</t>
         </is>
       </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>redeo</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -11209,6 +13889,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>refero</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -11229,6 +13914,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>regina</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -11249,6 +13939,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>regnum</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -11269,6 +13964,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>rego</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -11290,6 +13990,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>relinquo</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -11310,6 +14015,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>requiro</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -11331,6 +14041,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>res</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -11352,6 +14067,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>resideo</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -11373,6 +14093,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>respicio</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -11393,6 +14118,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>respondeo</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -11413,6 +14143,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>rex</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -11433,6 +14168,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>rogo</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -11453,6 +14193,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>Romanus</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -11473,6 +14218,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>rumpo</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -11493,6 +14243,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>rursus</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -11513,6 +14268,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>sacer</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -11533,6 +14293,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>saeculum</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -11553,6 +14318,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>saepe</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -11573,6 +14343,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>saevus</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -11593,6 +14368,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>salus</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -11613,6 +14393,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>sanguis</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -11633,6 +14418,11 @@
           <t>5.4</t>
         </is>
       </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -11653,6 +14443,11 @@
           <t>5.1</t>
         </is>
       </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>satis</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -11673,6 +14468,11 @@
           <t>6.5</t>
         </is>
       </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>saxum</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -11693,6 +14493,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>scelus</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -11713,6 +14518,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>scio</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -11733,6 +14543,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>scribo</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -11753,6 +14568,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>sed</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -11773,6 +14593,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>sedeo</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -11793,6 +14618,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>sedes</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -11813,6 +14643,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>semper</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -11833,6 +14668,11 @@
           <t>5.1</t>
         </is>
       </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>senatus</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -11853,6 +14693,11 @@
           <t>3.3</t>
         </is>
       </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>sentio</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -11873,6 +14718,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>sequor</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -11893,6 +14743,11 @@
           <t>3.6</t>
         </is>
       </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>sermo</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -11914,6 +14769,11 @@
           <t>6.2</t>
         </is>
       </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>servo</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -11934,6 +14794,11 @@
           <t>5.5</t>
         </is>
       </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>servus</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -11954,6 +14819,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -11975,6 +14845,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>sic</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -11995,6 +14870,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>sidus</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -12015,6 +14895,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>signum</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -12035,6 +14920,11 @@
           <t>6.1</t>
         </is>
       </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -12055,6 +14945,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>similis</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -12075,6 +14970,11 @@
           <t>3.6</t>
         </is>
       </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -12095,6 +14995,11 @@
           <t>3.5</t>
         </is>
       </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>sine</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -12115,6 +15020,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>sinus</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -12135,6 +15045,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>sive</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -12155,6 +15070,11 @@
           <t>6.3</t>
         </is>
       </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>socius</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -12175,6 +15095,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>sol</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -12195,6 +15120,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>soleo</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -12215,6 +15145,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>solus</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -12235,6 +15170,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>solvo</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -12255,6 +15195,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>somnus</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -12275,6 +15220,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>sono</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -12295,6 +15245,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>soror</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -12315,6 +15270,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>sors</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -12335,6 +15295,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>spatium</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -12355,6 +15320,11 @@
           <t>5.4</t>
         </is>
       </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>specto</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -12375,6 +15345,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>spes</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -12395,6 +15370,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>spiritus</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -12415,6 +15395,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>statim</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -12435,6 +15420,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>sterno</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -12455,6 +15445,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>stilus</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -12475,6 +15470,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>sto</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -12495,6 +15495,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>strideo</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -12516,6 +15521,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>studium</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -12537,6 +15547,11 @@
           <t>2.1</t>
         </is>
       </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -12557,6 +15572,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>subito</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -12577,6 +15597,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>subsisto</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -12597,6 +15622,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -12617,6 +15647,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>summus</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -12637,6 +15672,11 @@
           <t>3.6</t>
         </is>
       </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>sumo</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -12657,6 +15697,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>super</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -12677,6 +15722,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>superbus</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -12697,6 +15747,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>superus</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -12717,6 +15772,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>surgo</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -12737,6 +15797,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>suspendo</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -12757,6 +15822,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>sustineo</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -12777,6 +15847,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>suus</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -12797,6 +15872,11 @@
           <t>5.1</t>
         </is>
       </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>taceo</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -12817,6 +15897,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>tacitus</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
@@ -12837,6 +15922,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>talis</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -12857,6 +15947,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>tam</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -12877,6 +15972,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>tamen</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
@@ -12897,6 +15997,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>tamquam</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -12917,6 +16022,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>tandem</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
@@ -12937,6 +16047,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>tantum</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -12957,6 +16072,11 @@
           <t>2.5</t>
         </is>
       </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>tantum</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -12977,6 +16097,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>tantus</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -12997,6 +16122,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>tectum</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
@@ -13017,6 +16147,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>tego</t>
+        </is>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
@@ -13037,6 +16172,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>tellus</t>
+        </is>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
@@ -13057,6 +16197,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>telum</t>
+        </is>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
@@ -13077,6 +16222,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>templum</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
@@ -13097,6 +16247,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>tempto</t>
+        </is>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
@@ -13117,6 +16272,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>tempus</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -13137,6 +16297,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>tendo</t>
+        </is>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
@@ -13157,6 +16322,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>tenebrae</t>
+        </is>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -13177,6 +16347,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>teneo</t>
+        </is>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
@@ -13197,6 +16372,11 @@
           <t>6.2</t>
         </is>
       </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>tener</t>
+        </is>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -13217,6 +16397,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>tergum</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
@@ -13237,6 +16422,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>terra</t>
+        </is>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
@@ -13257,6 +16447,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>Teucri</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
@@ -13277,6 +16472,11 @@
           <t>3.6</t>
         </is>
       </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>timeo</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
@@ -13297,6 +16497,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>timor</t>
+        </is>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -13317,6 +16522,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>tollo</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
@@ -13337,6 +16547,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>torqueo</t>
+        </is>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
@@ -13357,6 +16572,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>tot</t>
+        </is>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
@@ -13377,6 +16597,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>totus</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
@@ -13397,6 +16622,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>trado</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -13417,6 +16647,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>traho</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
@@ -13437,6 +16672,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>Traianus</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
@@ -13457,6 +16697,11 @@
           <t>6.5</t>
         </is>
       </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>transeo</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
@@ -13477,6 +16722,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>tremor</t>
+        </is>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
@@ -13497,6 +16747,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>tristis</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
@@ -13517,6 +16772,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>Troia</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
@@ -13537,6 +16797,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>Troianus</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
@@ -13557,6 +16822,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>tu</t>
+        </is>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
@@ -13577,6 +16847,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>tum</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
@@ -13597,6 +16872,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>tunc</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -13618,6 +16898,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>turba</t>
+        </is>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
@@ -13638,6 +16923,11 @@
           <t>6.2</t>
         </is>
       </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>Turnus</t>
+        </is>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
@@ -13658,6 +16948,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>turpis</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
@@ -13678,6 +16973,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>tutus</t>
+        </is>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
@@ -13698,6 +16998,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>tuus</t>
+        </is>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
@@ -13718,6 +17023,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>ubi</t>
+        </is>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
@@ -13738,6 +17048,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>ullus</t>
+        </is>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
@@ -13758,6 +17073,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>ultimus</t>
+        </is>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
@@ -13778,6 +17098,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>umbra</t>
+        </is>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
@@ -13798,6 +17123,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>umerus</t>
+        </is>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
@@ -13818,6 +17148,11 @@
           <t>4.3</t>
         </is>
       </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>umquam</t>
+        </is>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
@@ -13838,6 +17173,11 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>unda</t>
+        </is>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -13858,6 +17198,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>unde</t>
+        </is>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
@@ -13878,6 +17223,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>unus</t>
+        </is>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
@@ -13898,6 +17248,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>urbs</t>
+        </is>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
@@ -13918,6 +17273,11 @@
           <t>5.3</t>
         </is>
       </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>usus</t>
+        </is>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
@@ -13938,6 +17298,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>ut</t>
+        </is>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
@@ -13959,6 +17324,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>uterque</t>
+        </is>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
@@ -13980,6 +17350,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>utor</t>
+        </is>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
@@ -14000,6 +17375,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>valeo</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
@@ -14020,6 +17400,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>varius</t>
+        </is>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
@@ -14040,6 +17425,11 @@
           <t>3.3</t>
         </is>
       </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>-ve</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
@@ -14060,6 +17450,11 @@
           <t>3.4</t>
         </is>
       </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>vel</t>
+        </is>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
@@ -14080,6 +17475,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>velut</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
@@ -14100,6 +17500,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>venio</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
@@ -14120,6 +17525,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>ventus</t>
+        </is>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
@@ -14140,6 +17550,11 @@
           <t>2.5</t>
         </is>
       </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>verbum</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
@@ -14160,6 +17575,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>vero</t>
+        </is>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
@@ -14180,6 +17600,11 @@
           <t>3.2</t>
         </is>
       </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>vertex</t>
+        </is>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
@@ -14200,6 +17625,11 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>verto</t>
+        </is>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
@@ -14220,6 +17650,11 @@
           <t>2.2</t>
         </is>
       </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>verus</t>
+        </is>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
@@ -14240,6 +17675,11 @@
           <t>3.3</t>
         </is>
       </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>vester</t>
+        </is>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
@@ -14261,6 +17701,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>vestigium</t>
+        </is>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
@@ -14281,6 +17726,11 @@
           <t>6.4</t>
         </is>
       </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>vestis</t>
+        </is>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
@@ -14301,6 +17751,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>vetus</t>
+        </is>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
@@ -14321,6 +17776,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>via</t>
+        </is>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
@@ -14341,6 +17801,11 @@
           <t>6.3</t>
         </is>
       </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>victor</t>
+        </is>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
@@ -14361,6 +17826,11 @@
           <t>1.1</t>
         </is>
       </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
@@ -14382,6 +17852,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>vinco</t>
+        </is>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
@@ -14402,6 +17877,11 @@
           <t>3.1</t>
         </is>
       </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>vinculum</t>
+        </is>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
@@ -14422,6 +17902,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>vir</t>
+        </is>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
@@ -14442,6 +17927,11 @@
           <t>6.2</t>
         </is>
       </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>virgo</t>
+        </is>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
@@ -14462,6 +17952,11 @@
           <t>6.4</t>
         </is>
       </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>virtus</t>
+        </is>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
@@ -14482,6 +17977,11 @@
           <t>3.6</t>
         </is>
       </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>vis</t>
+        </is>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
@@ -14502,6 +18002,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>vita</t>
+        </is>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
@@ -14522,6 +18027,11 @@
           <t>5.1</t>
         </is>
       </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>vitium</t>
+        </is>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
@@ -14542,6 +18052,11 @@
           <t>1.3</t>
         </is>
       </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>vivo</t>
+        </is>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
@@ -14562,6 +18077,11 @@
           <t>2.4</t>
         </is>
       </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>vix</t>
+        </is>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
@@ -14582,6 +18102,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>voco</t>
+        </is>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
@@ -14602,6 +18127,11 @@
           <t>6.1</t>
         </is>
       </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>volnus</t>
+        </is>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
@@ -14622,6 +18152,11 @@
           <t>4.4</t>
         </is>
       </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>volo</t>
+        </is>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
@@ -14642,6 +18177,11 @@
           <t>1.2</t>
         </is>
       </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>volo</t>
+        </is>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
@@ -14662,6 +18202,11 @@
           <t>6.1</t>
         </is>
       </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>voltus</t>
+        </is>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
@@ -14682,6 +18227,11 @@
           <t>3.6</t>
         </is>
       </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>voluptas</t>
+        </is>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
@@ -14702,6 +18252,11 @@
           <t>4.1</t>
         </is>
       </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>volvo</t>
+        </is>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
@@ -14722,6 +18277,11 @@
           <t>2.3</t>
         </is>
       </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>vos</t>
+        </is>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
@@ -14742,6 +18302,11 @@
           <t>5.1</t>
         </is>
       </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>votum</t>
+        </is>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
@@ -14760,6 +18325,11 @@
       <c r="D714" t="inlineStr">
         <is>
           <t>2.4</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>vox</t>
         </is>
       </c>
     </row>
